--- a/to_change_before_running_master_script.xlsx
+++ b/to_change_before_running_master_script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Database\Database_Scripts_Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7497222B-8D99-4115-9E0F-BE07150C30D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70EE6A-E818-4034-A778-19BBD38B63BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EF7CA978-CB44-45F5-AD9E-AC4EECCF44DA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>todays_date_formatted</t>
   </si>
@@ -54,27 +54,12 @@
     <t>latest_sdq_pull</t>
   </si>
   <si>
-    <t>Participant</t>
-  </si>
-  <si>
-    <t>Clinician</t>
-  </si>
-  <si>
-    <t>report_type</t>
-  </si>
-  <si>
     <t>modules2run</t>
   </si>
   <si>
-    <t>SDAN_and_BSD_MBDU.08.15.2019</t>
-  </si>
-  <si>
     <t>DAWBA.92200052_08122019</t>
   </si>
   <si>
-    <t>Total.2019-08-16T14_32_02</t>
-  </si>
-  <si>
     <t>maximum total number of tasks done in a single week</t>
   </si>
   <si>
@@ -93,24 +78,12 @@
     <t>will be a text file in the 'string-mbd/Database/Master Psychometric Database/SDQ_pull/' folder</t>
   </si>
   <si>
-    <t xml:space="preserve">enter the initials of the participant you want to produce a summary report for </t>
-  </si>
-  <si>
     <t xml:space="preserve">Task related: </t>
   </si>
   <si>
     <t>Data pull related:</t>
   </si>
   <si>
-    <t xml:space="preserve">CBT report related: </t>
-  </si>
-  <si>
-    <t>enter either "Kathryn", "Ken", "Argyris", "Chana", "Jeasmine"</t>
-  </si>
-  <si>
-    <t>enter either "progress" (if still in treatment) or "final" (if you want final summary of their treatment)</t>
-  </si>
-  <si>
     <t xml:space="preserve">What do you want the report to do? </t>
   </si>
   <si>
@@ -129,9 +102,6 @@
     <t>update DAWBA database &amp; deletion list</t>
   </si>
   <si>
-    <t xml:space="preserve">SCRIPT STILL IN DEVELOPMENT </t>
-  </si>
-  <si>
     <t>produce weekly numbers for clinical meeting</t>
   </si>
   <si>
@@ -147,21 +117,41 @@
     <t>create CBT report only (master database already updated)</t>
   </si>
   <si>
-    <t>JBLY</t>
-  </si>
-  <si>
-    <t>Chana</t>
-  </si>
-  <si>
-    <t>progress</t>
+    <t xml:space="preserve">CBT SCRIPT STILL IN DEVELOPMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEKLY NUMBERS SCRIPT STILL IN DEVELOPMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAWBA SCRIPT STILL IN DEVELOPMENT </t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>enter date in format mm/dd/yyyy - be very careful</t>
+  </si>
+  <si>
+    <t>Total.2019-08-21T15_10_37</t>
+  </si>
+  <si>
+    <t>SDAN_and_BSD_MBDU.08.21.2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -183,10 +173,83 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -195,10 +258,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,296 +584,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4A7430-6902-420E-A840-86F3CEECCF6D}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43698</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G2" s="3">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4">
         <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43698</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB1E41C-9455-4133-8595-7D6252BCFD8C}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="167.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6</v>
-      </c>
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
